--- a/test cases/import letter of credit test case of globe team.xlsx
+++ b/test cases/import letter of credit test case of globe team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B863A48-A90D-4025-A033-BB226BE4DE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B18674A-93DF-4C0D-B32A-3400426F6096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>fixing the commission in issuance event for multiple quarters</t>
   </si>
@@ -249,11 +249,6 @@
     <t>lc advice event, with usanse type</t>
   </si>
   <si>
-    <t xml:space="preserve">in usanse field, we need the same existed options but for each option need to cases 'after' &amp; 'from',
- ex:the option 'Bill of lading date' should be 'From Bill of lading date' and ' After Bill of lading date'.
-</t>
-  </si>
-  <si>
     <t>lc advice event, with sight type</t>
   </si>
   <si>
@@ -283,6 +278,13 @@
   </si>
   <si>
     <t>document type field should be optional.</t>
+  </si>
+  <si>
+    <t>lc advice event, with usance type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in usance from field, we need the same existed options but for each option need two cases 'after' &amp; 'from', ex:the option 'Bill of lading date' should be 'From Bill of lading date' and ' After Bill of lading date'.
+</t>
   </si>
 </sst>
 </file>
@@ -823,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1409,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="10">
         <v>45350</v>
@@ -1418,18 +1420,18 @@
         <v>45350</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="45">
+    <row r="31" spans="1:11" ht="60">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E31" s="10">
         <v>45350</v>
@@ -1443,13 +1445,13 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E32" s="10">
         <v>45350</v>
@@ -1463,13 +1465,13 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" s="10">
         <v>45350</v>
@@ -1483,13 +1485,13 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E34" s="10">
         <v>45350</v>
@@ -1503,13 +1505,13 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E35" s="10">
         <v>45351</v>
@@ -1523,13 +1525,13 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E36" s="10">
         <v>45351</v>
